--- a/Code/Results/Cases/Case_8_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.95367500711381</v>
+        <v>11.88007962984623</v>
       </c>
       <c r="C2">
-        <v>7.505287642123368</v>
+        <v>8.927679474313836</v>
       </c>
       <c r="D2">
-        <v>6.97301176131311</v>
+        <v>5.792984429894121</v>
       </c>
       <c r="E2">
-        <v>5.521748291665342</v>
+        <v>6.083841208435593</v>
       </c>
       <c r="F2">
-        <v>41.67728190404375</v>
+        <v>34.27644223656148</v>
       </c>
       <c r="G2">
-        <v>2.14909393646223</v>
+        <v>9.445139884999145</v>
       </c>
       <c r="H2">
-        <v>4.125753474319841</v>
+        <v>3.475089191894439</v>
       </c>
       <c r="I2">
-        <v>4.847284771049568</v>
+        <v>4.115810022268926</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>31.28761017672602</v>
+        <v>25.29171632004537</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>19.60545510944591</v>
       </c>
       <c r="M2">
-        <v>10.74128878345533</v>
+        <v>18.03641994675001</v>
       </c>
       <c r="N2">
-        <v>6.222135767607447</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.468461530745016</v>
+        <v>11.33277523042841</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.619368475068805</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.387828470163772</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.22588885106244</v>
+        <v>11.11636053895781</v>
       </c>
       <c r="C3">
-        <v>6.963931165542557</v>
+        <v>8.319045779807812</v>
       </c>
       <c r="D3">
-        <v>6.889796352185966</v>
+        <v>5.736318999345801</v>
       </c>
       <c r="E3">
-        <v>5.28416664062347</v>
+        <v>5.934821930776164</v>
       </c>
       <c r="F3">
-        <v>40.06041935255409</v>
+        <v>33.15306613468912</v>
       </c>
       <c r="G3">
-        <v>2.154962278394108</v>
+        <v>10.14474377225615</v>
       </c>
       <c r="H3">
-        <v>4.385057767628721</v>
+        <v>3.68395560424824</v>
       </c>
       <c r="I3">
-        <v>5.082543638017372</v>
+        <v>4.293310484184086</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>30.30783127885389</v>
+        <v>24.74866234951231</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>19.34920297632047</v>
       </c>
       <c r="M3">
-        <v>10.04152498496954</v>
+        <v>17.4972315368266</v>
       </c>
       <c r="N3">
-        <v>5.996732663544506</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.102443999786644</v>
+        <v>10.64562186176485</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.41513600942144</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.013285028055886</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.75654405821957</v>
+        <v>10.61885913929515</v>
       </c>
       <c r="C4">
-        <v>6.617718636467522</v>
+        <v>7.927380219946915</v>
       </c>
       <c r="D4">
-        <v>6.835046677816914</v>
+        <v>5.698880780618881</v>
       </c>
       <c r="E4">
-        <v>5.13284182464597</v>
+        <v>5.840208362537366</v>
       </c>
       <c r="F4">
-        <v>39.0303846786828</v>
+        <v>32.4356344634805</v>
       </c>
       <c r="G4">
-        <v>2.158678917046662</v>
+        <v>10.58861795776276</v>
       </c>
       <c r="H4">
-        <v>4.54956124373223</v>
+        <v>3.81672252599624</v>
       </c>
       <c r="I4">
-        <v>5.232270108522858</v>
+        <v>4.406858366492382</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.68344787485546</v>
+        <v>24.40053870408083</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>19.17688263825526</v>
       </c>
       <c r="M4">
-        <v>9.588090760960679</v>
+        <v>17.16732531486198</v>
       </c>
       <c r="N4">
-        <v>5.853924538713052</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.87131442011386</v>
+        <v>10.20086650051379</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.286399975510671</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.775919472322283</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.55849048176851</v>
+        <v>10.40757574167399</v>
       </c>
       <c r="C5">
-        <v>6.479419458892504</v>
+        <v>7.76849939480351</v>
       </c>
       <c r="D5">
-        <v>6.807944737009714</v>
+        <v>5.68131938062395</v>
       </c>
       <c r="E5">
-        <v>5.068119047207988</v>
+        <v>5.79981132589343</v>
       </c>
       <c r="F5">
-        <v>38.56801817112881</v>
+        <v>32.10934200563818</v>
       </c>
       <c r="G5">
-        <v>2.160236806000362</v>
+        <v>10.77470885828038</v>
       </c>
       <c r="H5">
-        <v>4.618564002493568</v>
+        <v>3.872443611054573</v>
       </c>
       <c r="I5">
-        <v>5.297118739581646</v>
+        <v>4.457112730877462</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>29.39702243791223</v>
+        <v>24.23467861546947</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>19.08609317842512</v>
       </c>
       <c r="M5">
-        <v>9.398350634710365</v>
+        <v>17.01946880964478</v>
       </c>
       <c r="N5">
-        <v>5.794783533077256</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.775511449532138</v>
+        <v>10.0147420968896</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.233223683552354</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.677344574784843</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.52375665999673</v>
+        <v>10.37041288950696</v>
       </c>
       <c r="C6">
-        <v>6.463944738559109</v>
+        <v>7.748266695439096</v>
       </c>
       <c r="D6">
-        <v>6.798667003406503</v>
+        <v>5.676383564811881</v>
       </c>
       <c r="E6">
-        <v>5.05524030081181</v>
+        <v>5.791769801141545</v>
       </c>
       <c r="F6">
-        <v>38.44950482771067</v>
+        <v>32.02145956904185</v>
       </c>
       <c r="G6">
-        <v>2.160514513542281</v>
+        <v>10.80771610981057</v>
       </c>
       <c r="H6">
-        <v>4.630846980358837</v>
+        <v>3.882330604420437</v>
       </c>
       <c r="I6">
-        <v>5.311107493333585</v>
+        <v>4.469128337080956</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>29.31673756377345</v>
+        <v>24.1819917577116</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>19.05029091445005</v>
       </c>
       <c r="M6">
-        <v>9.36775360573349</v>
+        <v>16.97779792572153</v>
       </c>
       <c r="N6">
-        <v>5.785050904970549</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.75937525257369</v>
+        <v>9.984507295388497</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.224443415564474</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.660754551261853</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.74981540175667</v>
+        <v>10.61914596326335</v>
       </c>
       <c r="C7">
-        <v>6.636312624003464</v>
+        <v>7.901586378408427</v>
       </c>
       <c r="D7">
-        <v>6.82185652068328</v>
+        <v>5.684441762862744</v>
       </c>
       <c r="E7">
-        <v>5.12645730181927</v>
+        <v>5.839128308753987</v>
       </c>
       <c r="F7">
-        <v>38.91313797136522</v>
+        <v>32.18125636857179</v>
       </c>
       <c r="G7">
-        <v>2.158746476031381</v>
+        <v>10.64404542898547</v>
       </c>
       <c r="H7">
-        <v>4.552493181013862</v>
+        <v>3.821333330759178</v>
       </c>
       <c r="I7">
-        <v>5.241490793465361</v>
+        <v>4.419630329246524</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.59204910493987</v>
+        <v>24.22735749666402</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>19.03643876955452</v>
       </c>
       <c r="M7">
-        <v>9.588937409764432</v>
+        <v>17.04615836500645</v>
       </c>
       <c r="N7">
-        <v>5.85354484366709</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.869639675108823</v>
+        <v>10.19164008420708</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.281942418480961</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.775659358449095</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.7023055421231</v>
+        <v>11.64029919830728</v>
       </c>
       <c r="C8">
-        <v>7.346086288014364</v>
+        <v>8.617025735761626</v>
       </c>
       <c r="D8">
-        <v>6.928493365585629</v>
+        <v>5.74184344736154</v>
       </c>
       <c r="E8">
-        <v>5.433990935478872</v>
+        <v>6.038309319629785</v>
       </c>
       <c r="F8">
-        <v>40.98773265631569</v>
+        <v>33.27525709316625</v>
       </c>
       <c r="G8">
-        <v>2.151154151394648</v>
+        <v>9.898167875779743</v>
       </c>
       <c r="H8">
-        <v>4.216647031280211</v>
+        <v>3.555543171454706</v>
       </c>
       <c r="I8">
-        <v>4.937970492337232</v>
+        <v>4.196345418621304</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>30.84317458703504</v>
+        <v>24.69150898304187</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>19.18999677505812</v>
       </c>
       <c r="M8">
-        <v>10.50901154566827</v>
+        <v>17.55100016108213</v>
       </c>
       <c r="N8">
-        <v>6.145907013206004</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.343115690773915</v>
+        <v>11.07463729560851</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.537337271683132</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.264116828321587</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.43599420727809</v>
+        <v>13.39641945766297</v>
       </c>
       <c r="C9">
-        <v>8.598377725858613</v>
+        <v>10.00017599099451</v>
       </c>
       <c r="D9">
-        <v>7.130658185476568</v>
+        <v>5.872176534553172</v>
       </c>
       <c r="E9">
-        <v>6.003718566399454</v>
+        <v>6.399046715893824</v>
       </c>
       <c r="F9">
-        <v>44.92907369989489</v>
+        <v>35.93032263472269</v>
       </c>
       <c r="G9">
-        <v>2.137053675600427</v>
+        <v>8.285053671233985</v>
       </c>
       <c r="H9">
-        <v>3.595282141424677</v>
+        <v>3.058472568940736</v>
       </c>
       <c r="I9">
-        <v>4.3696485275004</v>
+        <v>3.769247878159811</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>33.25464869983437</v>
+        <v>25.97445471722603</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>19.77001529108207</v>
       </c>
       <c r="M9">
-        <v>12.12061817252307</v>
+        <v>18.88681301686038</v>
       </c>
       <c r="N9">
-        <v>6.68196646868984</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.21757245987047</v>
+        <v>12.65438047293284</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.024031071677715</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.1546214117769</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.64770570018393</v>
+        <v>14.58647068500731</v>
       </c>
       <c r="C10">
-        <v>9.500150074130955</v>
+        <v>10.77820834671501</v>
       </c>
       <c r="D10">
-        <v>7.198706210104218</v>
+        <v>5.91542538364142</v>
       </c>
       <c r="E10">
-        <v>6.299079458150728</v>
+        <v>6.590283920665688</v>
       </c>
       <c r="F10">
-        <v>47.11502422422465</v>
+        <v>36.58244039998835</v>
       </c>
       <c r="G10">
-        <v>2.127428843521888</v>
+        <v>7.995078546645222</v>
       </c>
       <c r="H10">
-        <v>3.193167374838934</v>
+        <v>2.754457681439649</v>
       </c>
       <c r="I10">
-        <v>3.99095341229283</v>
+        <v>3.501965312779945</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>34.50197214242586</v>
+        <v>26.04272395440732</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>19.52470027638128</v>
       </c>
       <c r="M10">
-        <v>13.20531005617185</v>
+        <v>19.24717527949768</v>
       </c>
       <c r="N10">
-        <v>6.940822140996435</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.74904256212291</v>
+        <v>13.67064236903451</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.232185869473419</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.6987242592467</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.1603735343945</v>
+        <v>15.19131134394021</v>
       </c>
       <c r="C11">
-        <v>10.23683515589098</v>
+        <v>11.0155608246226</v>
       </c>
       <c r="D11">
-        <v>6.79195039577538</v>
+        <v>5.960539845487451</v>
       </c>
       <c r="E11">
-        <v>5.806889195243985</v>
+        <v>6.226278207819509</v>
       </c>
       <c r="F11">
-        <v>44.03938165864534</v>
+        <v>32.59547210328518</v>
       </c>
       <c r="G11">
-        <v>2.125070346884109</v>
+        <v>10.47618299415133</v>
       </c>
       <c r="H11">
-        <v>3.836721558371995</v>
+        <v>3.507082138990224</v>
       </c>
       <c r="I11">
-        <v>3.92509521046273</v>
+        <v>3.476935619413279</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.86631317115422</v>
+        <v>23.04541841422716</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.1634648136171</v>
       </c>
       <c r="M11">
-        <v>13.7796074176615</v>
+        <v>17.0935551238571</v>
       </c>
       <c r="N11">
-        <v>6.139100327054747</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.35411179929348</v>
+        <v>14.12080730128275</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.384434450508225</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.31776309784405</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.35597123238516</v>
+        <v>15.44888270886745</v>
       </c>
       <c r="C12">
-        <v>10.65799254348804</v>
+        <v>11.14675989556329</v>
       </c>
       <c r="D12">
-        <v>6.552290949905312</v>
+        <v>6.137874272095177</v>
       </c>
       <c r="E12">
-        <v>5.66211559803136</v>
+        <v>6.135827838198544</v>
       </c>
       <c r="F12">
-        <v>41.11732477149671</v>
+        <v>29.6950221228018</v>
       </c>
       <c r="G12">
-        <v>2.124836583846618</v>
+        <v>11.98834807391909</v>
       </c>
       <c r="H12">
-        <v>4.947837184944468</v>
+        <v>4.694686541590695</v>
       </c>
       <c r="I12">
-        <v>3.925075383979284</v>
+        <v>3.478935122978878</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>29.52009248677996</v>
+        <v>20.99351770595936</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.61769524852763</v>
       </c>
       <c r="M12">
-        <v>14.0444246582868</v>
+        <v>15.54782546718285</v>
       </c>
       <c r="N12">
-        <v>5.47638049577309</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.905081973436536</v>
+        <v>14.3204741271084</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.70988520693213</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.87431129387871</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.32016065757771</v>
+        <v>15.44137425207738</v>
       </c>
       <c r="C13">
-        <v>10.89895401125766</v>
+        <v>11.30492765835129</v>
       </c>
       <c r="D13">
-        <v>6.415411233766391</v>
+        <v>6.305781071951171</v>
       </c>
       <c r="E13">
-        <v>5.782003087697289</v>
+        <v>6.282991835552372</v>
       </c>
       <c r="F13">
-        <v>37.93069032449508</v>
+        <v>27.58735880895064</v>
       </c>
       <c r="G13">
-        <v>2.126293604380311</v>
+        <v>11.7160421769878</v>
       </c>
       <c r="H13">
-        <v>6.223715931619107</v>
+        <v>6.007559218924027</v>
       </c>
       <c r="I13">
-        <v>3.989522226332329</v>
+        <v>3.516885821319709</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.11205105390789</v>
+        <v>19.58730470874709</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.60598550299746</v>
       </c>
       <c r="M13">
-        <v>14.09959863787975</v>
+        <v>14.43302044878833</v>
       </c>
       <c r="N13">
-        <v>4.900530584727618</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.378102225356962</v>
+        <v>14.36597838821733</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.152287604743093</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.343696627465638</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.18936808715529</v>
+        <v>15.3156009164939</v>
       </c>
       <c r="C14">
-        <v>10.99621331994275</v>
+        <v>11.43273139619705</v>
       </c>
       <c r="D14">
-        <v>6.382171121296595</v>
+        <v>6.397329471373619</v>
       </c>
       <c r="E14">
-        <v>6.021867198331492</v>
+        <v>6.540235635692652</v>
       </c>
       <c r="F14">
-        <v>35.5334921671025</v>
+        <v>26.40686186567778</v>
       </c>
       <c r="G14">
-        <v>2.128070510919842</v>
+        <v>10.77269809174105</v>
       </c>
       <c r="H14">
-        <v>7.167805621667809</v>
+        <v>6.964947016985453</v>
       </c>
       <c r="I14">
-        <v>4.065606496406525</v>
+        <v>3.563407259661437</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.38491894164918</v>
+        <v>18.84641546046857</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.09323876952661</v>
       </c>
       <c r="M14">
-        <v>14.04586150163772</v>
+        <v>13.81850088507715</v>
       </c>
       <c r="N14">
-        <v>4.570606635266329</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.970195994897265</v>
+        <v>14.32876337813186</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.845085560670431</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.928672439782266</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.10563631583167</v>
+        <v>15.22708660881554</v>
       </c>
       <c r="C15">
-        <v>10.98790344428571</v>
+        <v>11.47062932394408</v>
       </c>
       <c r="D15">
-        <v>6.382004501756981</v>
+        <v>6.398766744270172</v>
       </c>
       <c r="E15">
-        <v>6.088124528416476</v>
+        <v>6.620136970480461</v>
       </c>
       <c r="F15">
-        <v>34.85575043259803</v>
+        <v>26.22499142758416</v>
       </c>
       <c r="G15">
-        <v>2.12890317622697</v>
+        <v>10.25679876523549</v>
       </c>
       <c r="H15">
-        <v>7.394876040829952</v>
+        <v>7.191400852607808</v>
       </c>
       <c r="I15">
-        <v>4.102739689846109</v>
+        <v>3.588296734119574</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.9226117940525</v>
+        <v>18.74421137399604</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.0308470382588</v>
       </c>
       <c r="M15">
-        <v>13.98839321677865</v>
+        <v>13.72175536804762</v>
       </c>
       <c r="N15">
-        <v>4.500267551644715</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.854129073361232</v>
+        <v>14.28570948535662</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.784153631726091</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.808967553505774</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.61593911792994</v>
+        <v>14.68765705426021</v>
       </c>
       <c r="C16">
-        <v>10.607017338176</v>
+        <v>11.42647312152061</v>
       </c>
       <c r="D16">
-        <v>6.372041497510786</v>
+        <v>6.186832589552933</v>
       </c>
       <c r="E16">
-        <v>5.927801250470464</v>
+        <v>6.56136108110224</v>
       </c>
       <c r="F16">
-        <v>34.36016706056902</v>
+        <v>27.33408074779662</v>
       </c>
       <c r="G16">
-        <v>2.132725746079337</v>
+        <v>8.347873329480795</v>
       </c>
       <c r="H16">
-        <v>7.259357341833233</v>
+        <v>7.019215826495201</v>
       </c>
       <c r="I16">
-        <v>4.255951607439362</v>
+        <v>3.687034370600713</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.75960353285175</v>
+        <v>19.5422114287326</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.67706623725402</v>
       </c>
       <c r="M16">
-        <v>13.5429811144396</v>
+        <v>14.26094155765453</v>
       </c>
       <c r="N16">
-        <v>4.484521302868086</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.714843365962864</v>
+        <v>13.93191950211827</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.807539521538672</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.653812195626113</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.30401688767078</v>
+        <v>14.3445146237027</v>
       </c>
       <c r="C17">
-        <v>10.25240453255123</v>
+        <v>11.26872442389596</v>
       </c>
       <c r="D17">
-        <v>6.371270248868723</v>
+        <v>6.027466458635708</v>
       </c>
       <c r="E17">
-        <v>5.640267906106489</v>
+        <v>6.326063210933111</v>
       </c>
       <c r="F17">
-        <v>35.28561009449233</v>
+        <v>28.6634732897</v>
       </c>
       <c r="G17">
-        <v>2.134733562817546</v>
+        <v>7.964017458337</v>
       </c>
       <c r="H17">
-        <v>6.635385987687785</v>
+        <v>6.353433774479986</v>
       </c>
       <c r="I17">
-        <v>4.334286673839032</v>
+        <v>3.740377512493429</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.55474016031556</v>
+        <v>20.4881546313812</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>15.42456212992631</v>
       </c>
       <c r="M17">
-        <v>13.2229242760787</v>
+        <v>14.93618101355163</v>
       </c>
       <c r="N17">
-        <v>4.633512210483355</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.830132050744254</v>
+        <v>13.66367045036666</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>4.976027879047948</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.762784482231162</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.12131998615191</v>
+        <v>14.12950855799788</v>
       </c>
       <c r="C18">
-        <v>9.871211485006331</v>
+        <v>11.0508819905742</v>
       </c>
       <c r="D18">
-        <v>6.43883639937973</v>
+        <v>5.896075107993239</v>
       </c>
       <c r="E18">
-        <v>5.369804260508654</v>
+        <v>6.049366580858781</v>
       </c>
       <c r="F18">
-        <v>37.63548200879961</v>
+        <v>30.6840241440159</v>
       </c>
       <c r="G18">
-        <v>2.135270146121148</v>
+        <v>7.872424949979523</v>
       </c>
       <c r="H18">
-        <v>5.57757605790398</v>
+        <v>5.235843624180285</v>
       </c>
       <c r="I18">
-        <v>4.343951723927846</v>
+        <v>3.744270043119236</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>27.36917961460607</v>
+        <v>21.91284762460125</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.52509509915968</v>
       </c>
       <c r="M18">
-        <v>12.97944013487522</v>
+        <v>15.98941382127059</v>
       </c>
       <c r="N18">
-        <v>5.022423650520788</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.179188710648594</v>
+        <v>13.45825384727632</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.371433253963436</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.111071322894917</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.05319993145527</v>
+        <v>14.02643456962687</v>
       </c>
       <c r="C19">
-        <v>9.537295127130854</v>
+        <v>10.85960724014217</v>
       </c>
       <c r="D19">
-        <v>6.632843732907132</v>
+        <v>5.840705393898741</v>
       </c>
       <c r="E19">
-        <v>5.405724982661737</v>
+        <v>5.988296194976699</v>
       </c>
       <c r="F19">
-        <v>40.7866440680387</v>
+        <v>33.08639000490513</v>
       </c>
       <c r="G19">
-        <v>2.134510938050651</v>
+        <v>7.771107252906758</v>
       </c>
       <c r="H19">
-        <v>4.409558511390271</v>
+        <v>3.987871778815141</v>
       </c>
       <c r="I19">
-        <v>4.307971518126218</v>
+        <v>3.722514888999547</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.78608878843453</v>
+        <v>23.62545159190864</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17.83232532371087</v>
       </c>
       <c r="M19">
-        <v>12.82748932051541</v>
+        <v>17.27395721264788</v>
       </c>
       <c r="N19">
-        <v>5.663698281186688</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.687607906788445</v>
+        <v>13.33453675802935</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.008305183494072</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.621958037499461</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.32592928945132</v>
+        <v>14.25223373808152</v>
       </c>
       <c r="C20">
-        <v>9.316578333907351</v>
+        <v>10.73355383627924</v>
       </c>
       <c r="D20">
-        <v>7.143454583110027</v>
+        <v>5.910349242267281</v>
       </c>
       <c r="E20">
-        <v>6.203452475492917</v>
+        <v>6.518905351684571</v>
       </c>
       <c r="F20">
-        <v>46.24054877184373</v>
+        <v>36.6508349676429</v>
       </c>
       <c r="G20">
-        <v>2.130068443395258</v>
+        <v>7.566445431750844</v>
       </c>
       <c r="H20">
-        <v>3.303210284833233</v>
+        <v>2.829865521252572</v>
       </c>
       <c r="I20">
-        <v>4.116897669739985</v>
+        <v>3.595366534578934</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>33.92841318165596</v>
+        <v>26.15674729536279</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>19.68726238933832</v>
       </c>
       <c r="M20">
-        <v>12.93639140367488</v>
+        <v>19.25184958961378</v>
       </c>
       <c r="N20">
-        <v>6.870098478097109</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.60724057520685</v>
+        <v>13.44516836630753</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.186486343582413</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.55038216821519</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.21625031077196</v>
+        <v>15.22440838703954</v>
       </c>
       <c r="C21">
-        <v>9.918694934737141</v>
+        <v>10.6965029449497</v>
       </c>
       <c r="D21">
-        <v>7.285504225700978</v>
+        <v>5.922538973619628</v>
       </c>
       <c r="E21">
-        <v>6.575924210096256</v>
+        <v>6.838316621679966</v>
       </c>
       <c r="F21">
-        <v>48.627465138335</v>
+        <v>35.21286507377784</v>
       </c>
       <c r="G21">
-        <v>2.122432025381737</v>
+        <v>11.68753667030818</v>
       </c>
       <c r="H21">
-        <v>2.953556584217158</v>
+        <v>2.592932475339362</v>
       </c>
       <c r="I21">
-        <v>3.811616839392177</v>
+        <v>3.417303493469197</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.45937123392334</v>
+        <v>24.97375308502684</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>18.58558983844165</v>
       </c>
       <c r="M21">
-        <v>13.71370214619773</v>
+        <v>18.58640794969766</v>
       </c>
       <c r="N21">
-        <v>7.23364565396018</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.1156393683148</v>
+        <v>14.03880216277063</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.449690733725177</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.08600860582665</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.77822590709045</v>
+        <v>15.84697725986891</v>
       </c>
       <c r="C22">
-        <v>10.30383949120118</v>
+        <v>10.64845763614007</v>
       </c>
       <c r="D22">
-        <v>7.36123484061806</v>
+        <v>5.983412815524325</v>
       </c>
       <c r="E22">
-        <v>6.771478521299557</v>
+        <v>7.025989467998503</v>
       </c>
       <c r="F22">
-        <v>50.0250558533973</v>
+        <v>34.05006987058963</v>
       </c>
       <c r="G22">
-        <v>2.117577260213332</v>
+        <v>15.95442662178984</v>
       </c>
       <c r="H22">
-        <v>2.74123849308118</v>
+        <v>2.451790374352364</v>
       </c>
       <c r="I22">
-        <v>3.609711289477028</v>
+        <v>3.292825376751853</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>36.34293864550759</v>
+        <v>24.05582223778443</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.77832127897005</v>
       </c>
       <c r="M22">
-        <v>14.2052719515254</v>
+        <v>18.02927847364974</v>
       </c>
       <c r="N22">
-        <v>7.408751990184142</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.40314439765725</v>
+        <v>14.40622417602286</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.558534417718563</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.39049518912163</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.48518781523888</v>
+        <v>15.50590897028812</v>
       </c>
       <c r="C23">
-        <v>10.08282152994715</v>
+        <v>10.73414079109235</v>
       </c>
       <c r="D23">
-        <v>7.334717365277704</v>
+        <v>5.942111543373894</v>
       </c>
       <c r="E23">
-        <v>6.672799402645488</v>
+        <v>6.918474155665601</v>
       </c>
       <c r="F23">
-        <v>49.38845029313709</v>
+        <v>35.0914814155245</v>
       </c>
       <c r="G23">
-        <v>2.120112579579874</v>
+        <v>12.88754063178162</v>
       </c>
       <c r="H23">
-        <v>2.852158204185315</v>
+        <v>2.521704309926777</v>
       </c>
       <c r="I23">
-        <v>3.706185238700933</v>
+        <v>3.342293758688693</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>35.96014694328252</v>
+        <v>24.83045434297995</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.41731823841424</v>
       </c>
       <c r="M23">
-        <v>13.9420087439516</v>
+        <v>18.54694808958185</v>
       </c>
       <c r="N23">
-        <v>7.315262712178279</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.25092867885484</v>
+        <v>14.22725754802412</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.508471781763902</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.22667926132886</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.31880702910424</v>
+        <v>14.23951812370599</v>
       </c>
       <c r="C24">
-        <v>9.249472857294574</v>
+        <v>10.68742644849681</v>
       </c>
       <c r="D24">
-        <v>7.206667676750993</v>
+        <v>5.925471835818186</v>
       </c>
       <c r="E24">
-        <v>6.282896787759731</v>
+        <v>6.577974270230411</v>
       </c>
       <c r="F24">
-        <v>46.73367586854246</v>
+        <v>37.05331942441725</v>
       </c>
       <c r="G24">
-        <v>2.129934132425357</v>
+        <v>7.534119284255139</v>
       </c>
       <c r="H24">
-        <v>3.282467728597878</v>
+        <v>2.810244422428237</v>
       </c>
       <c r="I24">
-        <v>4.096705136933962</v>
+        <v>3.573374471100654</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>34.32763150240876</v>
+        <v>26.46455275667902</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>19.92414401357775</v>
       </c>
       <c r="M24">
-        <v>12.9095220800087</v>
+        <v>19.48005485461987</v>
       </c>
       <c r="N24">
-        <v>6.952541372560535</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.65794401114497</v>
+        <v>13.42264937692734</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.269520602483626</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.6008554835576</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.95400789673503</v>
+        <v>12.92976812569082</v>
       </c>
       <c r="C25">
-        <v>8.300624314118538</v>
+        <v>9.71576853552607</v>
       </c>
       <c r="D25">
-        <v>7.057258413011203</v>
+        <v>5.841628884531685</v>
       </c>
       <c r="E25">
-        <v>5.845113743266356</v>
+        <v>6.294380797659362</v>
       </c>
       <c r="F25">
-        <v>43.71954458940524</v>
+        <v>35.29822269634827</v>
       </c>
       <c r="G25">
-        <v>2.140858958499072</v>
+        <v>8.600077691858148</v>
       </c>
       <c r="H25">
-        <v>3.762580412611057</v>
+        <v>3.188702780797569</v>
       </c>
       <c r="I25">
-        <v>4.534240770009051</v>
+        <v>3.895089489364312</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>32.47976599556693</v>
+        <v>25.66506840855594</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>19.64453709252791</v>
       </c>
       <c r="M25">
-        <v>11.70942659870343</v>
+        <v>18.54540966764393</v>
       </c>
       <c r="N25">
-        <v>6.541796364618188</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>9.986633167066328</v>
+        <v>12.26228920521319</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.901357734956312</v>
       </c>
       <c r="Q25">
+        <v>9.918688231054853</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
